--- a/dokument/statistik.xlsx
+++ b/dokument/statistik.xlsx
@@ -661,7 +661,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/dokument/statistik.xlsx
+++ b/dokument/statistik.xlsx
@@ -661,7 +661,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1117,106 +1117,106 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="D39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="D39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D40" s="3">
+        <v>1282</v>
+      </c>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="D41" s="3">
-        <v>1282</v>
+        <v>35</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="D41" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1118</v>
+      </c>
       <c r="D42" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1118</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="D43" s="3"/>
       <c r="F43" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="D44" s="3"/>
-      <c r="F44" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="D44" s="3">
+        <v>1496</v>
+      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="D45" s="3">
-        <v>1496</v>
-      </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="D46" s="1">
+      <c r="D45" s="1">
         <v>1300</v>
       </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>103</v>
       </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="D47" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="D48" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="F48" s="1">
+        <v>3175</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
@@ -1224,43 +1224,43 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>62</v>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="F50" s="1">
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="1"/>
+      <c r="D50" s="3"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D51" s="3"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="D52" s="3">
+        <v>1999</v>
+      </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="D53" s="3">
-        <v>1999</v>
-      </c>
-      <c r="F53" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">

--- a/dokument/statistik.xlsx
+++ b/dokument/statistik.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
   <si>
     <t>20-meter</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>förändrad punkt för borrhålet</t>
-  </si>
-  <si>
-    <t>uppgifter om avstånd mellan planerat bergvärmehål och befintliga bergvärmeanläggningar</t>
   </si>
   <si>
     <t>Bättre kartunderlag krävs</t>
@@ -658,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -674,7 +671,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="5">
         <v>2012</v>
@@ -691,7 +688,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="3"/>
@@ -700,16 +697,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -718,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3">
         <v>1277</v>
@@ -730,10 +727,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" s="3"/>
@@ -741,11 +738,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
@@ -755,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3"/>
       <c r="F7" s="3"/>
@@ -766,102 +763,104 @@
         <v>3</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="D9" s="3">
+        <v>1286</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="D10" s="3">
-        <v>1286</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3175</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3">
-        <v>3175</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3063</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="3">
-        <v>3063</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="D15" s="3">
+        <v>1078</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="D16" s="3">
-        <v>1078</v>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="1"/>
@@ -870,87 +869,87 @@
       <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="D18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="D19" s="3" t="s">
-        <v>72</v>
+      <c r="D19" s="3">
+        <v>2848</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="D20" s="3">
-        <v>2848</v>
-      </c>
-      <c r="F20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="D23" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -966,245 +965,244 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1"/>
       <c r="D25" s="1">
-        <v>2014</v>
+        <v>2666</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="D26" s="1">
-        <v>2666</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1558</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1558</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>102</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="D29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2631</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2631</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="D30" s="3">
+        <v>1742</v>
+      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>28</v>
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="D31" s="3">
-        <v>1742</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="D32" s="3"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1535</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1535</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B35" s="1"/>
       <c r="D35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="D36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+      <c r="F36" s="1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="F37" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D37" s="3">
+        <v>1277</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="D38" s="3">
-        <v>1277</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D39" s="3">
+        <v>1282</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="D40" s="3">
-        <v>1282</v>
+        <v>34</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="D40" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="1">
+        <v>1118</v>
+      </c>
       <c r="D41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1118</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="D42" s="3"/>
       <c r="F42" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D43" s="3">
+        <v>1496</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="D44" s="3">
-        <v>1496</v>
-      </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="D45" s="1">
+      <c r="D44" s="1">
         <v>1300</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="D46" s="1">
+        <v>2014</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="D47" s="1">
-        <v>2014</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
+      <c r="F47" s="1">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -1214,173 +1212,163 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>62</v>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="F49" s="1">
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="1"/>
+      <c r="D49" s="3"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D50" s="3"/>
-      <c r="F50" s="2"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="D51" s="3">
+        <v>1999</v>
+      </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="D52" s="3">
-        <v>1999</v>
-      </c>
-      <c r="F52" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F53" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="F53" s="1">
+        <v>3063</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="F54" s="1">
-        <v>3063</v>
-      </c>
+      <c r="D54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1"/>
       <c r="D55" s="3" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="D56" s="3" t="s">
-        <v>31</v>
+      <c r="D56" s="3">
+        <v>2848</v>
       </c>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="D57" s="3">
-        <v>2848</v>
+      <c r="D57" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="D58" s="3" t="s">
-        <v>70</v>
+        <v>7</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="D61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="F62" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>105</v>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="F63" s="1">
+        <v>3237</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="F64" s="1">
-        <v>3237</v>
-      </c>
+      <c r="D64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="D65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="D66" s="3">
+      <c r="D65" s="3">
         <v>2723</v>
       </c>
-      <c r="F66" s="3"/>
+      <c r="F65" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dokument/statistik.xlsx
+++ b/dokument/statistik.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="20955" windowHeight="9465"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="20955" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F41" activeCellId="1" sqref="F35 F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
